--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_30_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_30_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>57536.19987546271</v>
+        <v>11364513.28618889</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>57536.19987546271</v>
+        <v>11364513.28618889</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2112.483571989703</v>
+        <v>332851.9629114295</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2112.483571989703</v>
+        <v>332851.9629114295</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1190347173.038769</v>
+        <v>49948169.72082786</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11019.73659932697</v>
+        <v>1260356.371780211</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20226.03288832881</v>
+        <v>2236373.578037971</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>29433.13547605945</v>
+        <v>3212390.784295733</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>38666.40482000336</v>
+        <v>4188417.255784277</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>47899.74112222439</v>
+        <v>5164434.462042039</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>57133.07742444541</v>
+        <v>6140451.6682998</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>66366.41372666643</v>
+        <v>7116468.874557557</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>75599.75002888746</v>
+        <v>8092486.080815314</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>84846.50404731058</v>
+        <v>9059569.849011797</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>94098.95884133392</v>
+        <v>10037601.80205538</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>103332.2951435549</v>
+        <v>11013619.00831314</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>112565.6314457759</v>
+        <v>11989636.21457091</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>121798.967747997</v>
+        <v>12965653.42082868</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>131109.77900989</v>
+        <v>13884770.33770424</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>140593.8586316232</v>
+        <v>14806223.52276061</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>388</v>
@@ -27055,7 +27055,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,13 +27144,13 @@
         <v>421</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
